--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF19D0B-380C-6B4F-9530-F632CED79D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A8C5CC-6A73-1F42-A411-E72C222EBB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32200" yWindow="5060" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,23 +417,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A8C5CC-6A73-1F42-A411-E72C222EBB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC07BB-B20D-FF4D-86F9-66C9845F413A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32200" yWindow="5060" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -417,7 +417,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BC07BB-B20D-FF4D-86F9-66C9845F413A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30300064-1A70-E449-A95C-7B99C27A2E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32200" yWindow="5060" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="34780" yWindow="4900" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,6 +428,14 @@
         <v>26</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30300064-1A70-E449-A95C-7B99C27A2E63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C3BE92-D6AC-D24B-9F33-2796DA2445E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34780" yWindow="4900" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,6 +436,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C3BE92-D6AC-D24B-9F33-2796DA2445E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A278A161-7E24-6742-878F-5A99B71B1661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34780" yWindow="4900" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,6 +444,14 @@
         <v>46</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A278A161-7E24-6742-878F-5A99B71B1661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6963FD71-0638-2049-955D-472261D5B180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34780" yWindow="4900" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -449,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6963FD71-0638-2049-955D-472261D5B180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB7E7FE-196F-1141-8176-A76B1FB7DFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34780" yWindow="4900" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,6 +452,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB7E7FE-196F-1141-8176-A76B1FB7DFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F3043F-CC90-E247-A8A2-0BD503F3CC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34780" yWindow="4900" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,6 +460,14 @@
         <v>89</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F3043F-CC90-E247-A8A2-0BD503F3CC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48318B-5001-274D-BD9A-02BB124092C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34780" yWindow="4900" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,6 +468,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>69.569999999999993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A48318B-5001-274D-BD9A-02BB124092C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD777652-E02D-BF47-95AD-C193EBE6B045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34780" yWindow="4900" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,6 +476,14 @@
         <v>69.569999999999993</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD777652-E02D-BF47-95AD-C193EBE6B045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EFFF2C-E321-FC4A-A941-90CE46847E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34780" yWindow="4900" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,6 +484,14 @@
         <v>70</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>69.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EFFF2C-E321-FC4A-A941-90CE46847E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F743D18-08AE-CB46-B051-D43052E4A55E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34780" yWindow="4900" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,6 +492,14 @@
         <v>69.56</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F743D18-08AE-CB46-B051-D43052E4A55E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4029E176-2ABC-C445-88B5-371943BFCC60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34780" yWindow="4900" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="36000" yWindow="5260" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,6 +500,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>60.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_status_goal.xlsx
+++ b/data/GOZO_status_goal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4029E176-2ABC-C445-88B5-371943BFCC60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC868FAF-77A0-7640-9BC8-763DA50EEDF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="5260" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="32140" yWindow="3360" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,7 +425,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>36</v>
+        <v>35.71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -441,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -449,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>63</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -457,7 +457,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>88.89</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -465,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -489,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>69.56</v>
+        <v>69.569999999999993</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -506,6 +506,14 @@
       </c>
       <c r="C13">
         <v>60.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>
